--- a/Datasets/meta_data_botched.xlsx
+++ b/Datasets/meta_data_botched.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>time point</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Timepoint</t>
+          <t>AGE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AGE</t>
+          <t>SEX</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SEX</t>
+          <t>PLACEBO</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PLACEBO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ARM</t>
         </is>
@@ -396,209 +391,179 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>4296</v>
+        <v>4323</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>Mann</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>placebo</t>
+          <t>Placebo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>4296</v>
+        <v>4323</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>32 ,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Placebo</t>
+          <t>placebo</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4012</v>
+        <v>4066</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Plazebo</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4012</v>
+        <v>4066</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Day1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30 ,</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>Plazebo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>4756</v>
+        <v>4958</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D 0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Placibo</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>4756</v>
+        <v>4958</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -606,69 +571,59 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>4406</v>
+        <v>4894</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D 0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>day 0</t>
+          <t>23 yrs</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>männlich</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>Plazebo</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>4406</v>
+        <v>4894</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>männlich</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -676,104 +631,89 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>4635</v>
+        <v>4122</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>female</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>placebo</t>
+          <t>control</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>4635</v>
+        <v>4122</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>day 1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Day1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27 yrs</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Placebo</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>4695</v>
+        <v>4563</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -781,34 +721,29 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>4695</v>
+        <v>4563</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -816,69 +751,59 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>4990</v>
+        <v>4876</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Placebo</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>4990</v>
+        <v>4876</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Day1</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Femal</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>Placibo</t>
         </is>
@@ -886,34 +811,29 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>4061</v>
+        <v>4422</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -921,104 +841,89 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>4061</v>
+        <v>4422</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>Plazebo</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>4346</v>
+        <v>4429</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>Placibo</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>4346</v>
+        <v>4429</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
         <is>
           <t>control</t>
         </is>
@@ -1026,34 +931,29 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>4055</v>
+        <v>4312</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1061,139 +961,119 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>4055</v>
+        <v>4312</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>placebo</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>4472</v>
+        <v>4149</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>Placibo</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>4472</v>
+        <v>4149</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Plazebo</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>4537</v>
+        <v>4127</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>day 0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1201,69 +1081,59 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>4537</v>
+        <v>4127</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Plazebo</t>
+          <t>Placibo</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4641</v>
+        <v>4317</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1271,69 +1141,59 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>4641</v>
+        <v>4317</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>female</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>fluad vaccine</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>4182</v>
+        <v>4316</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1341,34 +1201,29 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>4182</v>
+        <v>4316</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Day1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1376,139 +1231,119 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>4125</v>
+        <v>4119</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>28 ,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Fl.</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>4125</v>
+        <v>4119</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>fluad vaccine</t>
+          <t>Fl.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>4877</v>
+        <v>4190</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D 0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>control</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>4877</v>
+        <v>4190</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>36 yrs</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -1516,34 +1351,29 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>4176</v>
+        <v>4129</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1551,69 +1381,59 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>4176</v>
+        <v>4129</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D 1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>agrippal vaccine</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>4233</v>
+        <v>4902</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D 0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1621,34 +1441,29 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>4233</v>
+        <v>4902</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>D 1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1656,34 +1471,29 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>4480</v>
+        <v>4575</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D 0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>männlich</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1691,104 +1501,89 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>4480</v>
+        <v>4575</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>fluad vaccine</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4999</v>
+        <v>4034</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>agrippal vaccine</t>
+          <t>agrippal</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>4999</v>
+        <v>4034</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1796,196 +1591,171 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>4730</v>
+        <v>4924</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>control</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>4730</v>
+        <v>4924</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>day 1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Placibo</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>4834</v>
+        <v>4160</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>D 0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>AGRP.</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4834</v>
+        <v>4160</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Agrippal vaccine</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>4561</v>
+        <v>4028</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>grippal</t>
+          <t>Agrippal vaccine</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>4561</v>
+        <v>4028</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1994,11 +1764,6 @@
         </is>
       </c>
       <c r="F47" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
         <is>
           <t>agrippal vaccine</t>
         </is>
@@ -2006,34 +1771,29 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>4766</v>
+        <v>4635</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>29 yrs</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -2041,56 +1801,51 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>4766</v>
+        <v>4635</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>Placibo</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>4600</v>
+        <v>4781</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2100,80 +1855,65 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>Fl.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>4600</v>
+        <v>4781</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Fluad</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>4658</v>
+        <v>4695</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
         <is>
           <t>grippal</t>
         </is>
@@ -2181,34 +1921,29 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>4658</v>
+        <v>4695</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>day 1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
         <is>
           <t>grippal</t>
         </is>
@@ -2220,30 +1955,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2255,275 +1985,235 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Day1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>30 ,</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>Fl.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>4970</v>
+        <v>4848</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>day 0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Agrippal</t>
+          <t>Agrippal vaccine</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>4970</v>
+        <v>4848</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1 7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>AGRP.</t>
+          <t>agrippal vaccine</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>4227</v>
+        <v>4384</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>agrippal vaccine</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>4227</v>
+        <v>4384</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>grippal</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>4941</v>
+        <v>4496</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>AGRP.</t>
+          <t>Agrippal vaccine</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>4941</v>
+        <v>4496</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D 1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>AGRP.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>4183</v>
+        <v>4232</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Day0</t>
+          <t>3 7</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -2531,139 +2221,119 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>4183</v>
+        <v>4232</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>Placibo</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>4670</v>
+        <v>4153</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Mann</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>placebo</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>4670</v>
+        <v>4153</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D 1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>D 1</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Placebo</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>4518</v>
+        <v>4276</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2671,69 +2341,59 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>4518</v>
+        <v>4276</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>FLUAD</t>
+          <t>Fuad</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>4458</v>
+        <v>4612</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2741,69 +2401,59 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>4458</v>
+        <v>4612</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>23 yrs</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>grippal</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>4466</v>
+        <v>4568</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>männlich</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2811,244 +2461,209 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>4466</v>
+        <v>4568</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D 1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>32 yrs</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>31 ,</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Fl.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>4403</v>
+        <v>4269</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>37 ,</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>Fuad</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>4403</v>
+        <v>4269</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D 1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Fluad vaccine</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>4587</v>
+        <v>4329</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>day 0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Fl.</t>
+          <t>Fluad</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>4587</v>
+        <v>4329</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>Fl.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>4445</v>
+        <v>4147</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>fluad vaccine</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>4445</v>
+        <v>4147</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3056,104 +2671,89 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>4419</v>
+        <v>4452</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Mann</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Agrippal</t>
+          <t>agrippal vaccine</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>4419</v>
+        <v>4452</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>40 yrs</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Agrippal</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>4874</v>
+        <v>4557</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -3161,139 +2761,119 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>4874</v>
+        <v>4557</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Agrippal vaccine</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>4199</v>
+        <v>4321</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Fuad</t>
+          <t>fluad vaccine</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>4199</v>
+        <v>4321</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>20 yrs</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Fuad</t>
+          <t>Fluad</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>4204</v>
+        <v>4337</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>D 0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>female</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -3301,21 +2881,21 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>4204</v>
+        <v>4337</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>35 yrs</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3325,115 +2905,95 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Agrippal vaccine</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>4514</v>
+        <v>4221</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Agrippal</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>4514</v>
+        <v>4221</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>grippal</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>4952</v>
+        <v>4622</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -3441,34 +3001,29 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>4952</v>
+        <v>4622</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>22 ,</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Femal</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -3476,34 +3031,29 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>4863</v>
+        <v>4389</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -3511,104 +3061,89 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>4863</v>
+        <v>4389</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>AGRP.</t>
+          <t>grippal</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>4663</v>
+        <v>4023</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>day 0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Femal</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>fluad vaccine</t>
+          <t>FLUAD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>4663</v>
+        <v>4023</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3616,69 +3151,59 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>4529</v>
+        <v>4578</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>agrippal</t>
+          <t>AGRP.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>4529</v>
+        <v>4578</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -3686,34 +3211,29 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>4193</v>
+        <v>4899</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>D 0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3721,21 +3241,21 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>4193</v>
+        <v>4899</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3745,45 +3265,35 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Fluad vaccine</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>4702</v>
+        <v>4836</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Day0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -3791,69 +3301,59 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>4702</v>
+        <v>4836</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Day1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>AGRP.</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>4421</v>
+        <v>4973</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
         <is>
           <t>placebo</t>
         </is>
@@ -3861,56 +3361,51 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>4421</v>
+        <v>4973</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>Femal</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Placibo</t>
+          <t>Placebo</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>4843</v>
+        <v>4783</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3920,150 +3415,125 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>fluad vaccine</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>4843</v>
+        <v>4783</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>30 yrs</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>fluad vaccine</t>
+          <t>Fluad vaccine</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>4650</v>
+        <v>4701</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>FLUAD</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>4650</v>
+        <v>4701</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>Fluad</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>4857</v>
+        <v>4743</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>D 0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -4071,34 +3541,29 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>4857</v>
+        <v>4743</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
         <is>
           <t>AGRP.</t>
         </is>
@@ -4106,174 +3571,149 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>4640</v>
+        <v>4406</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Mann</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Fluad</t>
+          <t>FLUAD</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>4640</v>
+        <v>4406</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>day 1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>fluad vaccine</t>
+          <t>Fluad</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4321</v>
+        <v>4475</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>control</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>4321</v>
+        <v>4475</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>Placibo</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>4762</v>
+        <v>4235</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>D 0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -4281,139 +3721,119 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>4762</v>
+        <v>4235</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>placebo</t>
+          <t>control</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>4612</v>
+        <v>4952</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>day 0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Fluad</t>
+          <t>Fl.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>4612</v>
+        <v>4952</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Day1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>männlich</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>FLUAD</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>4608</v>
+        <v>4433</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>30 ,</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -4421,21 +3841,21 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>4608</v>
+        <v>4433</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>32 ,</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4445,222 +3865,187 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Fluad vaccine</t>
+          <t>Fl.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>4715</v>
+        <v>4223</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>AGRP.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>4715</v>
+        <v>4223</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>grippal</t>
+          <t>AGRP.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4191</v>
+        <v>4510</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D 0</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Day0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>fluad vaccine</t>
+          <t>Fuad</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>4191</v>
+        <v>4510</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D 1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>D 1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Fluad</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>4994</v>
+        <v>4959</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>29 ,</t>
+          <t>Femal</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>agrippal vaccine</t>
+          <t>Agrippal vaccine</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>4994</v>
+        <v>4959</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Agrippal vaccine</t>
+          <t>agrippal</t>
         </is>
       </c>
     </row>
